--- a/Team-Data/2013-14/2-18-2013-14.xlsx
+++ b/Team-Data/2013-14/2-18-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" t="n">
         <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>0.481</v>
+        <v>0.49</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -684,19 +751,19 @@
         <v>37.8</v>
       </c>
       <c r="J2" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K2" t="n">
         <v>0.459</v>
       </c>
       <c r="L2" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>24.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O2" t="n">
         <v>16.5</v>
@@ -705,31 +772,31 @@
         <v>21.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.777</v>
+        <v>0.779</v>
       </c>
       <c r="R2" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="S2" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T2" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U2" t="n">
         <v>25.6</v>
       </c>
       <c r="V2" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W2" t="n">
         <v>8.9</v>
       </c>
       <c r="X2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z2" t="n">
         <v>18.8</v>
@@ -738,13 +805,13 @@
         <v>19.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
         <v>14</v>
@@ -756,7 +823,7 @@
         <v>14</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -765,7 +832,7 @@
         <v>18</v>
       </c>
       <c r="AK2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
@@ -780,34 +847,34 @@
         <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ2" t="n">
         <v>6</v>
       </c>
       <c r="AR2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS2" t="n">
         <v>17</v>
       </c>
       <c r="AT2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU2" t="n">
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AW2" t="n">
         <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>24</v>
@@ -938,16 +1005,16 @@
         <v>25</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
         <v>25</v>
@@ -971,7 +1038,7 @@
         <v>13</v>
       </c>
       <c r="AS3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT3" t="n">
         <v>15</v>
@@ -980,10 +1047,10 @@
         <v>26</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX3" t="n">
         <v>15</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-2.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
         <v>17</v>
@@ -1132,13 +1199,13 @@
         <v>14</v>
       </c>
       <c r="AL4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
         <v>9</v>
@@ -1147,7 +1214,7 @@
         <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1162,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>12</v>
@@ -1180,10 +1247,10 @@
         <v>11</v>
       </c>
       <c r="BB4" t="n">
+        <v>22</v>
+      </c>
+      <c r="BC4" t="n">
         <v>21</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="n">
         <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>0.444</v>
+        <v>0.434</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1230,10 +1297,10 @@
         <v>35.6</v>
       </c>
       <c r="J5" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
@@ -1242,31 +1309,31 @@
         <v>16.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O5" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P5" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.723</v>
+        <v>0.726</v>
       </c>
       <c r="R5" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S5" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T5" t="n">
         <v>42</v>
       </c>
       <c r="U5" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V5" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W5" t="n">
         <v>6.2</v>
@@ -1281,28 +1348,28 @@
         <v>18.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>95</v>
+        <v>94.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.1</v>
+        <v>-2.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
         <v>27</v>
@@ -1311,7 +1378,7 @@
         <v>24</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
         <v>29</v>
@@ -1326,13 +1393,13 @@
         <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ5" t="n">
         <v>27</v>
       </c>
       <c r="AR5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS5" t="n">
         <v>8</v>
@@ -1353,7 +1420,7 @@
         <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>3</v>
@@ -1365,7 +1432,7 @@
         <v>26</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1514,10 +1581,10 @@
         <v>10</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT6" t="n">
         <v>9</v>
@@ -1541,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="BA6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB6" t="n">
         <v>30</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
         <v>33</v>
       </c>
       <c r="G7" t="n">
-        <v>0.389</v>
+        <v>0.377</v>
       </c>
       <c r="H7" t="n">
         <v>48.8</v>
@@ -1600,37 +1667,37 @@
         <v>0.425</v>
       </c>
       <c r="L7" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M7" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
         <v>0.358</v>
       </c>
       <c r="O7" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="P7" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.742</v>
+        <v>0.739</v>
       </c>
       <c r="R7" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="S7" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T7" t="n">
-        <v>44.4</v>
+        <v>44.1</v>
       </c>
       <c r="U7" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V7" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W7" t="n">
         <v>7.4</v>
@@ -1639,31 +1706,31 @@
         <v>3.9</v>
       </c>
       <c r="Y7" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z7" t="n">
         <v>20.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>97</v>
+        <v>96.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.7</v>
+        <v>-5.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>22</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
         <v>2</v>
@@ -1681,25 +1748,25 @@
         <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN7" t="n">
         <v>15</v>
       </c>
       <c r="AO7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP7" t="n">
         <v>18</v>
       </c>
-      <c r="AP7" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT7" t="n">
         <v>11</v>
@@ -1708,19 +1775,19 @@
         <v>27</v>
       </c>
       <c r="AV7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
       </c>
       <c r="AY7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA7" t="n">
         <v>19</v>
@@ -1729,7 +1796,7 @@
         <v>23</v>
       </c>
       <c r="BC7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -1758,97 +1825,97 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" t="n">
         <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>0.582</v>
+        <v>0.593</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="J8" t="n">
         <v>83.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.47</v>
+        <v>0.472</v>
       </c>
       <c r="L8" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O8" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="P8" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.802</v>
+        <v>0.799</v>
       </c>
       <c r="R8" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T8" t="n">
-        <v>40.3</v>
+        <v>40.1</v>
       </c>
       <c r="U8" t="n">
         <v>23.3</v>
       </c>
       <c r="V8" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W8" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y8" t="n">
         <v>3.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB8" t="n">
         <v>103.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1860,7 +1927,7 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM8" t="n">
         <v>11</v>
@@ -1869,10 +1936,10 @@
         <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1887,7 +1954,7 @@
         <v>28</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV8" t="n">
         <v>3</v>
@@ -1896,19 +1963,19 @@
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AY8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
         <v>23</v>
       </c>
       <c r="BB8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -1940,64 +2007,64 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" t="n">
         <v>24</v>
       </c>
       <c r="F9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" t="n">
-        <v>0.462</v>
+        <v>0.471</v>
       </c>
       <c r="H9" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="I9" t="n">
         <v>38</v>
       </c>
       <c r="J9" t="n">
-        <v>85</v>
+        <v>84.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L9" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.357</v>
+        <v>0.361</v>
       </c>
       <c r="O9" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P9" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="Q9" t="n">
         <v>0.727</v>
       </c>
       <c r="R9" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S9" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T9" t="n">
-        <v>45.5</v>
+        <v>45.3</v>
       </c>
       <c r="U9" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V9" t="n">
         <v>15.5</v>
       </c>
       <c r="W9" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X9" t="n">
         <v>5.7</v>
@@ -2006,55 +2073,55 @@
         <v>5.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="AC9" t="n">
         <v>-1.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AI9" t="n">
         <v>14</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK9" t="n">
         <v>17</v>
       </c>
       <c r="AL9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
       </c>
       <c r="AN9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ9" t="n">
         <v>26</v>
@@ -2066,16 +2133,16 @@
         <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU9" t="n">
         <v>13</v>
       </c>
       <c r="AV9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW9" t="n">
         <v>23</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>22</v>
       </c>
       <c r="AX9" t="n">
         <v>5</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" t="n">
         <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" t="n">
-        <v>0.415</v>
+        <v>0.423</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,10 +2207,10 @@
         <v>38.6</v>
       </c>
       <c r="J10" t="n">
-        <v>86.2</v>
+        <v>86</v>
       </c>
       <c r="K10" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L10" t="n">
         <v>6</v>
@@ -2158,25 +2225,25 @@
         <v>17.3</v>
       </c>
       <c r="P10" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.665</v>
+        <v>0.667</v>
       </c>
       <c r="R10" t="n">
         <v>14.7</v>
       </c>
       <c r="S10" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T10" t="n">
-        <v>45.3</v>
+        <v>45.2</v>
       </c>
       <c r="U10" t="n">
         <v>20.5</v>
       </c>
       <c r="V10" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W10" t="n">
         <v>8.9</v>
@@ -2188,34 +2255,34 @@
         <v>4.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.2</v>
+        <v>-2</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
@@ -2236,7 +2303,7 @@
         <v>16</v>
       </c>
       <c r="AP10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ10" t="n">
         <v>30</v>
@@ -2251,10 +2318,10 @@
         <v>7</v>
       </c>
       <c r="AU10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AV10" t="n">
         <v>23</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>21</v>
       </c>
       <c r="AW10" t="n">
         <v>3</v>
@@ -2263,10 +2330,10 @@
         <v>9</v>
       </c>
       <c r="AY10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>14</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>15</v>
       </c>
       <c r="BA10" t="n">
         <v>13</v>
@@ -2275,7 +2342,7 @@
         <v>14</v>
       </c>
       <c r="BC10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
@@ -2391,19 +2458,19 @@
         <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>6</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AK11" t="n">
         <v>7</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>8</v>
       </c>
       <c r="AL11" t="n">
         <v>3</v>
@@ -2421,7 +2488,7 @@
         <v>20</v>
       </c>
       <c r="AQ11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR11" t="n">
         <v>15</v>
@@ -2442,7 +2509,7 @@
         <v>14</v>
       </c>
       <c r="AX11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>4.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2576,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>16</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2615,7 +2682,7 @@
         <v>8</v>
       </c>
       <c r="AU12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>0.774</v>
+        <v>0.769</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J13" t="n">
         <v>81</v>
       </c>
       <c r="K13" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L13" t="n">
         <v>6.9</v>
@@ -2698,55 +2765,55 @@
         <v>19.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O13" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P13" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.782</v>
+        <v>0.781</v>
       </c>
       <c r="R13" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S13" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="T13" t="n">
-        <v>45.4</v>
+        <v>45.6</v>
       </c>
       <c r="U13" t="n">
         <v>20.5</v>
       </c>
       <c r="V13" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W13" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y13" t="n">
         <v>4.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA13" t="n">
         <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="AC13" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2758,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>21</v>
@@ -2794,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AU13" t="n">
         <v>22</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -2850,43 +2917,43 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" t="n">
         <v>37</v>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>0.661</v>
+        <v>0.673</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J14" t="n">
         <v>81.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
         <v>8.1</v>
       </c>
       <c r="M14" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O14" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="P14" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="Q14" t="n">
         <v>0.73</v>
@@ -2898,40 +2965,40 @@
         <v>32.6</v>
       </c>
       <c r="T14" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U14" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="V14" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W14" t="n">
         <v>8.4</v>
       </c>
       <c r="X14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.9</v>
+        <v>107</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="n">
         <v>7</v>
@@ -2940,10 +3007,10 @@
         <v>7</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO14" t="n">
         <v>2</v>
@@ -2973,7 +3040,7 @@
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT14" t="n">
         <v>16</v>
@@ -3003,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI15" t="n">
         <v>18</v>
@@ -3143,7 +3210,7 @@
         <v>8</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
@@ -3185,7 +3252,7 @@
         <v>15</v>
       </c>
       <c r="BC15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" t="n">
         <v>23</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3232,10 +3299,10 @@
         <v>37.3</v>
       </c>
       <c r="J16" t="n">
-        <v>81.90000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L16" t="n">
         <v>4.9</v>
@@ -3244,10 +3311,10 @@
         <v>14.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.345</v>
+        <v>0.342</v>
       </c>
       <c r="O16" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="P16" t="n">
         <v>20.2</v>
@@ -3256,13 +3323,13 @@
         <v>0.75</v>
       </c>
       <c r="R16" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S16" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T16" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U16" t="n">
         <v>21.4</v>
@@ -3271,40 +3338,40 @@
         <v>13.5</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X16" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y16" t="n">
         <v>5.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI16" t="n">
         <v>17</v>
@@ -3322,13 +3389,13 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ16" t="n">
         <v>19</v>
@@ -3340,7 +3407,7 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU16" t="n">
         <v>16</v>
@@ -3352,16 +3419,16 @@
         <v>16</v>
       </c>
       <c r="AX16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ16" t="n">
         <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BB16" t="n">
         <v>27</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -3396,34 +3463,34 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.731</v>
+        <v>0.725</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J17" t="n">
         <v>76.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.509</v>
+        <v>0.508</v>
       </c>
       <c r="L17" t="n">
         <v>8.1</v>
       </c>
       <c r="M17" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="N17" t="n">
         <v>0.37</v>
@@ -3435,22 +3502,22 @@
         <v>24</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R17" t="n">
         <v>7.3</v>
       </c>
       <c r="S17" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="T17" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="U17" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V17" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W17" t="n">
         <v>9.199999999999999</v>
@@ -3459,22 +3526,22 @@
         <v>4.3</v>
       </c>
       <c r="Y17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Z17" t="n">
         <v>20.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.4</v>
+        <v>104.1</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3486,10 +3553,10 @@
         <v>3</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3504,13 +3571,13 @@
         <v>13</v>
       </c>
       <c r="AN17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO17" t="n">
         <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
         <v>16</v>
@@ -3534,13 +3601,13 @@
         <v>1</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
         <v>12</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
         <v>43</v>
       </c>
       <c r="G18" t="n">
-        <v>0.189</v>
+        <v>0.173</v>
       </c>
       <c r="H18" t="n">
         <v>48.7</v>
@@ -3602,19 +3669,19 @@
         <v>0.423</v>
       </c>
       <c r="L18" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M18" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.354</v>
+        <v>0.352</v>
       </c>
       <c r="O18" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="P18" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="Q18" t="n">
         <v>0.753</v>
@@ -3626,37 +3693,37 @@
         <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U18" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V18" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W18" t="n">
         <v>6.9</v>
       </c>
       <c r="X18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y18" t="n">
         <v>5.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>92.5</v>
+        <v>92.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.300000000000001</v>
+        <v>-9.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3683,7 +3750,7 @@
         <v>18</v>
       </c>
       <c r="AM18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AN18" t="n">
         <v>18</v>
@@ -3692,7 +3759,7 @@
         <v>28</v>
       </c>
       <c r="AP18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ18" t="n">
         <v>18</v>
@@ -3710,7 +3777,7 @@
         <v>17</v>
       </c>
       <c r="AV18" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -3838,22 +3905,22 @@
         <v>3.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
         <v>14</v>
       </c>
       <c r="AF19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG19" t="n">
         <v>16</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>15</v>
       </c>
       <c r="AH19" t="n">
         <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ19" t="n">
         <v>2</v>
@@ -3868,7 +3935,7 @@
         <v>12</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3889,7 +3956,7 @@
         <v>3</v>
       </c>
       <c r="AU19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
         <v>7</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>-1.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
         <v>19</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH20" t="n">
         <v>13</v>
@@ -4056,7 +4123,7 @@
         <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
         <v>12</v>
@@ -4068,7 +4135,7 @@
         <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU20" t="n">
         <v>15</v>
@@ -4077,13 +4144,13 @@
         <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX20" t="n">
         <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" t="n">
         <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" t="n">
-        <v>0.377</v>
+        <v>0.385</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
@@ -4154,28 +4221,28 @@
         <v>24.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.364</v>
+        <v>0.367</v>
       </c>
       <c r="O21" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="P21" t="n">
         <v>19.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S21" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T21" t="n">
         <v>40.7</v>
       </c>
       <c r="U21" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V21" t="n">
         <v>13.1</v>
@@ -4196,22 +4263,22 @@
         <v>19.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.9</v>
+        <v>-1.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF21" t="n">
         <v>22</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH21" t="n">
         <v>10</v>
@@ -4232,7 +4299,7 @@
         <v>6</v>
       </c>
       <c r="AN21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR21" t="n">
         <v>19</v>
@@ -4250,10 +4317,10 @@
         <v>28</v>
       </c>
       <c r="AT21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV21" t="n">
         <v>2</v>
@@ -4265,7 +4332,7 @@
         <v>19</v>
       </c>
       <c r="AY21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ21" t="n">
         <v>26</v>
@@ -4274,7 +4341,7 @@
         <v>22</v>
       </c>
       <c r="BB21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC21" t="n">
         <v>19</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4411,16 +4478,16 @@
         <v>17</v>
       </c>
       <c r="AM22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
@@ -4456,7 +4523,7 @@
         <v>18</v>
       </c>
       <c r="BB22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" t="n">
-        <v>0.291</v>
+        <v>0.296</v>
       </c>
       <c r="H23" t="n">
         <v>48.6</v>
@@ -4506,40 +4573,40 @@
         <v>36.3</v>
       </c>
       <c r="J23" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O23" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="P23" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.761</v>
+        <v>0.764</v>
       </c>
       <c r="R23" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S23" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T23" t="n">
         <v>42.1</v>
       </c>
       <c r="U23" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V23" t="n">
         <v>14.9</v>
@@ -4548,7 +4615,7 @@
         <v>7.6</v>
       </c>
       <c r="X23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y23" t="n">
         <v>5.9</v>
@@ -4560,13 +4627,13 @@
         <v>18.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.3</v>
+        <v>-5.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4581,10 +4648,10 @@
         <v>5</v>
       </c>
       <c r="AI23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
@@ -4593,10 +4660,10 @@
         <v>20</v>
       </c>
       <c r="AM23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO23" t="n">
         <v>22</v>
@@ -4605,13 +4672,13 @@
         <v>22</v>
       </c>
       <c r="AQ23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR23" t="n">
         <v>25</v>
       </c>
       <c r="AS23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT23" t="n">
         <v>22</v>
@@ -4626,7 +4693,7 @@
         <v>15</v>
       </c>
       <c r="AX23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AY23" t="n">
         <v>26</v>
@@ -4635,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BB23" t="n">
         <v>24</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -4670,52 +4737,52 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" t="n">
-        <v>0.273</v>
+        <v>0.278</v>
       </c>
       <c r="H24" t="n">
         <v>48.6</v>
       </c>
       <c r="I24" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J24" t="n">
         <v>88.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L24" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M24" t="n">
         <v>21.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.313</v>
+        <v>0.314</v>
       </c>
       <c r="O24" t="n">
         <v>16.6</v>
       </c>
       <c r="P24" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.715</v>
+        <v>0.716</v>
       </c>
       <c r="R24" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S24" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T24" t="n">
         <v>44.5</v>
@@ -4727,13 +4794,13 @@
         <v>17.4</v>
       </c>
       <c r="W24" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X24" t="n">
         <v>4.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="Z24" t="n">
         <v>21.8</v>
@@ -4742,13 +4809,13 @@
         <v>20.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.5</v>
+        <v>-10.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4763,7 +4830,7 @@
         <v>6</v>
       </c>
       <c r="AI24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ24" t="n">
         <v>1</v>
@@ -4784,16 +4851,16 @@
         <v>20</v>
       </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" t="n">
         <v>21</v>
       </c>
       <c r="G25" t="n">
-        <v>0.596</v>
+        <v>0.588</v>
       </c>
       <c r="H25" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I25" t="n">
         <v>38.6</v>
       </c>
       <c r="J25" t="n">
-        <v>84.40000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.457</v>
+        <v>0.459</v>
       </c>
       <c r="L25" t="n">
         <v>9.4</v>
@@ -4885,22 +4952,22 @@
         <v>0.37</v>
       </c>
       <c r="O25" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="P25" t="n">
-        <v>24.2</v>
+        <v>23.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R25" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S25" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="T25" t="n">
-        <v>43.6</v>
+        <v>43.3</v>
       </c>
       <c r="U25" t="n">
         <v>19.1</v>
@@ -4915,37 +4982,37 @@
         <v>4.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.1</v>
+        <v>104.9</v>
       </c>
       <c r="AC25" t="n">
         <v>3.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF25" t="n">
         <v>8</v>
       </c>
       <c r="AG25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI25" t="n">
         <v>8</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>9</v>
       </c>
       <c r="AJ25" t="n">
         <v>9</v>
@@ -4954,22 +5021,22 @@
         <v>9</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM25" t="n">
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
         <v>10</v>
       </c>
       <c r="AP25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
@@ -4978,7 +5045,7 @@
         <v>15</v>
       </c>
       <c r="AT25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU25" t="n">
         <v>30</v>
@@ -4987,7 +5054,7 @@
         <v>18</v>
       </c>
       <c r="AW25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX25" t="n">
         <v>13</v>
@@ -4999,10 +5066,10 @@
         <v>24</v>
       </c>
       <c r="BA25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
@@ -5124,7 +5191,7 @@
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5136,7 +5203,7 @@
         <v>13</v>
       </c>
       <c r="AL26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM26" t="n">
         <v>5</v>
@@ -5148,13 +5215,13 @@
         <v>6</v>
       </c>
       <c r="AP26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5306,7 +5373,7 @@
         <v>26</v>
       </c>
       <c r="AH27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
         <v>19</v>
@@ -5324,7 +5391,7 @@
         <v>24</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
@@ -5336,7 +5403,7 @@
         <v>7</v>
       </c>
       <c r="AR27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS27" t="n">
         <v>16</v>
@@ -5348,7 +5415,7 @@
         <v>29</v>
       </c>
       <c r="AV27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW27" t="n">
         <v>21</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F28" t="n">
         <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>0.722</v>
+        <v>0.717</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="J28" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0.49</v>
@@ -5428,7 +5495,7 @@
         <v>20.4</v>
       </c>
       <c r="N28" t="n">
-        <v>0.394</v>
+        <v>0.393</v>
       </c>
       <c r="O28" t="n">
         <v>15.3</v>
@@ -5443,10 +5510,10 @@
         <v>8.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T28" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U28" t="n">
         <v>24.7</v>
@@ -5464,19 +5531,19 @@
         <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="AA28" t="n">
         <v>19.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>104</v>
+        <v>103.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5488,19 +5555,19 @@
         <v>4</v>
       </c>
       <c r="AH28" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM28" t="n">
         <v>19</v>
@@ -5524,7 +5591,7 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5536,10 +5603,10 @@
         <v>17</v>
       </c>
       <c r="AX28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ28" t="n">
         <v>2</v>
@@ -5548,10 +5615,10 @@
         <v>25</v>
       </c>
       <c r="BB28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -5580,64 +5647,64 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29" t="n">
         <v>24</v>
       </c>
       <c r="G29" t="n">
-        <v>0.547</v>
+        <v>0.538</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J29" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.439</v>
+        <v>0.437</v>
       </c>
       <c r="L29" t="n">
         <v>8.4</v>
       </c>
       <c r="M29" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O29" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P29" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q29" t="n">
         <v>0.773</v>
       </c>
       <c r="R29" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="S29" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T29" t="n">
-        <v>43.1</v>
+        <v>43.4</v>
       </c>
       <c r="U29" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V29" t="n">
         <v>14</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X29" t="n">
         <v>4.3</v>
@@ -5655,10 +5722,10 @@
         <v>99.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5679,7 +5746,7 @@
         <v>17</v>
       </c>
       <c r="AK29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5688,25 +5755,25 @@
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP29" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ29" t="n">
         <v>9</v>
       </c>
       <c r="AR29" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AS29" t="n">
         <v>21</v>
       </c>
       <c r="AT29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU29" t="n">
         <v>18</v>
@@ -5715,7 +5782,7 @@
         <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX29" t="n">
         <v>23</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>-5.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AE30" t="n">
         <v>24</v>
       </c>
       <c r="AF30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG30" t="n">
         <v>24</v>
@@ -5861,7 +5928,7 @@
         <v>25</v>
       </c>
       <c r="AK30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
         <v>23</v>
@@ -5879,7 +5946,7 @@
         <v>21</v>
       </c>
       <c r="AQ30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR30" t="n">
         <v>16</v>
@@ -5897,13 +5964,13 @@
         <v>12</v>
       </c>
       <c r="AW30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY30" t="n">
         <v>18</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>17</v>
       </c>
       <c r="AZ30" t="n">
         <v>18</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
@@ -5944,37 +6011,37 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" t="n">
         <v>25</v>
       </c>
       <c r="F31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G31" t="n">
-        <v>0.472</v>
+        <v>0.481</v>
       </c>
       <c r="H31" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I31" t="n">
         <v>38</v>
       </c>
       <c r="J31" t="n">
-        <v>84.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L31" t="n">
         <v>7.8</v>
       </c>
       <c r="M31" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.378</v>
+        <v>0.38</v>
       </c>
       <c r="O31" t="n">
         <v>15.5</v>
@@ -5983,52 +6050,52 @@
         <v>21.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.728</v>
+        <v>0.73</v>
       </c>
       <c r="R31" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S31" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T31" t="n">
         <v>42.4</v>
       </c>
       <c r="U31" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V31" t="n">
         <v>14.9</v>
       </c>
       <c r="W31" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X31" t="n">
         <v>4.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
       </c>
       <c r="AF31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
         <v>15</v>
@@ -6058,7 +6125,7 @@
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ31" t="n">
         <v>25</v>
@@ -6067,10 +6134,10 @@
         <v>20</v>
       </c>
       <c r="AS31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU31" t="n">
         <v>9</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-18-2013-14</t>
+          <t>2014-02-18</t>
         </is>
       </c>
     </row>
